--- a/interview.xlsx
+++ b/interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Документы\GitHub\ProjMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8007ACB4-D490-4D27-9C34-6540EA8DDB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F963B4-974F-42C6-B459-3A6AEB487CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Да</t>
   </si>
 </sst>
 </file>
@@ -87,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,6 +387,7 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -405,6 +410,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
